--- a/data/trans_dic/P16A_2_R3-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A_2_R3-Habitat-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.3933144359751812</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.334175200559162</v>
+        <v>0.3341752005591621</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.239842517254564</v>
+        <v>0.2364039889798032</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3657378075807199</v>
+        <v>0.365000969598801</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3115625754255181</v>
+        <v>0.3135185516890385</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3098284208647548</v>
+        <v>0.306736080444622</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4263070206270568</v>
+        <v>0.4222898015679085</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3558412045968736</v>
+        <v>0.3601212087968103</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1844990771129561</v>
+        <v>0.1841858483794147</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3608416122245788</v>
+        <v>0.360520800267569</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2812617942887964</v>
+        <v>0.2787435046685047</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.236806817396374</v>
+        <v>0.2372358464879056</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4117660060061802</v>
+        <v>0.4148800089256055</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.316983795378841</v>
+        <v>0.3170529330605451</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.2222435962925894</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.3611036184095837</v>
+        <v>0.3611036184095838</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.2920684257827443</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1911229898742649</v>
+        <v>0.1930730936415316</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3323665939472123</v>
+        <v>0.3310985010933028</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2692713999798487</v>
+        <v>0.2696241477550169</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2569996682622082</v>
+        <v>0.2584980823964496</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3893181190831202</v>
+        <v>0.3898897855660597</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3146714660957155</v>
+        <v>0.3136940677460195</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2150261360929651</v>
+        <v>0.2173551699007608</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3692381139524278</v>
+        <v>0.3690662743270443</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.307107515756522</v>
+        <v>0.3067137877850317</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2732669300040125</v>
+        <v>0.2761722978086332</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.41876378493653</v>
+        <v>0.4197862973022324</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3444160687874409</v>
+        <v>0.3440595233787586</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.2343875668078073</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.3852442282092558</v>
+        <v>0.3852442282092557</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.3119345333659548</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2205059173152155</v>
+        <v>0.2192657142338669</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3716091974299672</v>
+        <v>0.3712981889071949</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3017833033591725</v>
+        <v>0.3021886901114751</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2500003067216884</v>
+        <v>0.251420363277917</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.399332062798248</v>
+        <v>0.3984778390431452</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3224079061697446</v>
+        <v>0.323501419293903</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>165662</v>
+        <v>163287</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>268517</v>
+        <v>267976</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>443942</v>
+        <v>446729</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>214002</v>
+        <v>211866</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>312986</v>
+        <v>310037</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>507034</v>
+        <v>513133</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>193524</v>
+        <v>193196</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>386632</v>
+        <v>386289</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>596385</v>
+        <v>591045</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>248391</v>
+        <v>248841</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>441197</v>
+        <v>444533</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>672130</v>
+        <v>672276</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>153486</v>
+        <v>155052</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>269968</v>
+        <v>268938</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>434963</v>
+        <v>435533</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>206389</v>
+        <v>207593</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>316227</v>
+        <v>316691</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>508299</v>
+        <v>506720</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>212889</v>
+        <v>215195</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>413193</v>
+        <v>413000</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>647722</v>
+        <v>646891</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>270551</v>
+        <v>273428</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>468614</v>
+        <v>469758</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>726409</v>
+        <v>725657</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>778995</v>
+        <v>774614</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1388686</v>
+        <v>1387524</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2193879</v>
+        <v>2196826</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>883192</v>
+        <v>888208</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1492286</v>
+        <v>1489093</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2343814</v>
+        <v>2351763</v>
       </c>
     </row>
     <row r="24">
